--- a/指标清单计算_20190320.xlsx
+++ b/指标清单计算_20190320.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="10770"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20310" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="179">
   <si>
     <t>所属层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,28 +893,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.排除线路Geom Intersection 区域=&gt;InnnerGeom=&gt;pachu_Length
-2.规划线路Geom Intersection 区域=&gt;planGeom=&gt;planBuffer=&gt;bufferGeom和InnerGeom Intersection=&gt;overlapgeom=&gt;repeatLength
-3.线网的现状Length-pachu_Length+(planGeom_length-repeateLength)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.现有线路长度
-+1(规划的线路是否在区域中求inersection长度)
--1（排除的线路是否在区域中求intersection长度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现有300、500、600米的范围区和区域的Intersection结果面积
 减去第一步pid的排除点union(300buffer面积)+
 加上规划点pid的Union（300buffer面积）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.plan的线段所有站点geom=&gt;buffer=&gt;buffergeom
-2.300,500,600的geom做merge=&gt;mergegeom
-3.区域面和  mergegeom做intersection
-只加上规划的面不考虑排除的面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -927,12 +908,6 @@
 0中间站
 1场站
 3临时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.先提取排除线路pid集合，提取规划线路pid集合
-2.在t_line_plan_pointlist表中select point （条件使用全部现状类型（剔除排除pid集合）+规划线路的id集合）=&gt;rows geoms=&gt;和区域intersects=&gt;pids=&gt;distinct pid 统计个数,
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -947,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.使用上一步骤中的pids集合在t_line_plan_pointlist中select pid  FROM  t_linepoint where pid in（1,2,3,4,5）group by pid  having  count(distinct lineguid)&gt;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规划指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -962,13 +933,6 @@
     <t>1.区域面和T_BusLine_Shape空间包含
 2. 计算区域t_division先Instersects，T_BusLine_Shape结果集合中除去上下行count(distinct lineguid)统计相交的线个数sum count ,然后再Intersection =&gt;collection Sum(ST_Length)
 2.区域面积t_division geometry=&gt;area sum ST_Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.现有线路数量
-+1(规划的线路是否在区域中)Intersetct =&gt;T_BusLine_Shape lineguid=&gt;union=&gt;intersects 
--1（排除的线路是否在区域中）Intersect
-t_plan_lineshape planid=&gt;union=&gt;intersects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1014,6 +978,47 @@
       </rPr>
       <t>累加（不去重）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.计算intersetcs,现状和规划与区域的判断
+2.计算intersection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现有线路数量
++1(规划的线路是否在区域中)Intersetct =&gt;T_BusLine_Shape lineguid=&gt;union=&gt;intersects 
+-1（排除的线路是否在区域中）Intersect
+t_plan_lineshape planid=&gt;union=&gt;intersects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现有线路长度
++1(规划的线路是否在区域中求inersection长度)
+-1（排除的线路是否在区域中求intersection长度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排除线路Geom Intersection 区域=&gt;InnnerGeom=&gt;pachu_Length
+2.规划线路Geom Intersection 区域&gt;planGeom=&gt;planBuffer=&gt;bufferGeom和NetGeom （全部网络线段）Intersection=&gt;overlapgeom=&gt;repeatLength
+3.线网的现状Length-pachu_Length+(planGeom_length-repeateLength)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.先提取排除线路pid集合，提取规划线路pid集合
+2.在t_line_plan_pointlist表中select point （条件使用全部现状类型（剔除排除pid集合）+规划线路的id集合）=&gt;rows geoms=&gt;和区域intersects=&gt;pids=&gt;distinct pid 统计个数,
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用上一步骤中的pids集合在t_line_plan_pointlist中select pid  FROM  t_linepoint where pid in（1,2,3,4,5）group by pid  having  count(distinct lineguid)&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.plan的线段所有站点geom=&gt;buffer=&gt;buffergeom
+2.300,500,600的geom做merge=&gt;mergegeom
+3.区域面和  mergegeom做intersection
+只加上规划的面不考虑排除的面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,80 +1326,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,9 +1715,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N10" sqref="N10:N12"/>
     </sheetView>
   </sheetViews>
@@ -1731,11 +1736,12 @@
     <col min="11" max="11" width="34.375" customWidth="1"/>
     <col min="12" max="12" width="41.625" style="26" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="29.875" style="26" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="44.625" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="26"/>
+    <col min="14" max="14" width="57.5" style="26" customWidth="1"/>
+    <col min="15" max="15" width="37.375" style="26" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,18 +1770,18 @@
         <v>134</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L1" s="25"/>
       <c r="M1" s="25" t="s">
         <v>151</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="140.25" customHeight="1">
-      <c r="A2" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="140.25" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1799,30 +1805,33 @@
       <c r="H2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="50" t="s">
         <v>157</v>
       </c>
       <c r="M2" s="42" t="s">
         <v>162</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="44.25" customHeight="1">
-      <c r="A3" s="57"/>
+        <v>175</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="44.25" customHeight="1">
+      <c r="A3" s="53"/>
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1842,22 +1851,22 @@
       <c r="H3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="45"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="26" t="s">
         <v>154</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="69" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="O3" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A4" s="54"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -1873,13 +1882,13 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" ht="114.75" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="1:16" ht="114.75" customHeight="1">
+      <c r="A5" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1904,22 +1913,22 @@
       <c r="I5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="45"/>
+      <c r="K5" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="50"/>
       <c r="M5" s="41" t="s">
         <v>155</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="81.75" customHeight="1">
-      <c r="A6" s="60"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="81.75" customHeight="1">
+      <c r="A6" s="56"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>72</v>
@@ -1928,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>107</v>
@@ -1937,21 +1946,21 @@
       <c r="H6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="41" t="s">
         <v>156</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="84" customHeight="1">
-      <c r="A7" s="61"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="84" customHeight="1">
+      <c r="A7" s="57"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
         <v>29</v>
@@ -1960,17 +1969,17 @@
         <v>34</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="17"/>
       <c r="H7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="45"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="41" t="s">
         <v>154</v>
       </c>
@@ -1978,8 +1987,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="98.25" customHeight="1">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:16" ht="98.25" customHeight="1">
+      <c r="A8" s="61" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2007,8 +2016,8 @@
       <c r="J8" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="47" t="s">
-        <v>170</v>
+      <c r="K8" s="63" t="s">
+        <v>166</v>
       </c>
       <c r="L8" s="43" t="s">
         <v>159</v>
@@ -2017,11 +2026,11 @@
         <v>160</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="54">
-      <c r="A9" s="57"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="54">
+      <c r="A9" s="53"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -2041,16 +2050,16 @@
       <c r="J9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="48"/>
+      <c r="K9" s="64"/>
       <c r="M9" s="42" t="s">
         <v>161</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="57"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="53"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2066,22 +2075,22 @@
       <c r="H10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="M10" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="57"/>
+      <c r="K10" s="64"/>
+      <c r="M10" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="53"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2095,14 +2104,14 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-    </row>
-    <row r="12" spans="1:15" ht="77.25" customHeight="1">
-      <c r="A12" s="58"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+    </row>
+    <row r="12" spans="1:16" ht="77.25" customHeight="1">
+      <c r="A12" s="54"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>30</v>
@@ -2118,14 +2127,14 @@
         <v>31</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-    </row>
-    <row r="13" spans="1:15" ht="40.5">
-      <c r="A13" s="59" t="s">
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+    </row>
+    <row r="13" spans="1:16" ht="40.5">
+      <c r="A13" s="55" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2145,18 +2154,18 @@
       <c r="H13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="46" t="s">
         <v>111</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="56"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
         <v>67</v>
@@ -2172,14 +2181,14 @@
       <c r="H14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="60"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="56"/>
       <c r="B15" s="13"/>
       <c r="C15" s="24" t="s">
         <v>44</v>
@@ -2195,12 +2204,12 @@
         <v>45</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="54"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="61"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="57"/>
       <c r="B16" s="15"/>
       <c r="C16" s="12" t="s">
         <v>19</v>
@@ -2214,14 +2223,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="54"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="54"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:14" s="30" customFormat="1">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2240,19 +2249,19 @@
       <c r="G17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="67" t="s">
         <v>113</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="67" t="s">
+      <c r="K17" s="48" t="s">
         <v>144</v>
       </c>
       <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" s="30" customFormat="1">
-      <c r="A18" s="63"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="31"/>
       <c r="C18" s="36" t="s">
         <v>96</v>
@@ -2268,15 +2277,15 @@
       <c r="H18" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="55"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="68"/>
+      <c r="K18" s="49"/>
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="30" customFormat="1">
-      <c r="A19" s="63"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="31"/>
       <c r="C19" s="29" t="s">
         <v>98</v>
@@ -2295,11 +2304,11 @@
       <c r="J19" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="49"/>
       <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" s="30" customFormat="1" ht="27">
-      <c r="A20" s="63"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="31"/>
       <c r="C20" s="38" t="s">
         <v>22</v>
@@ -2318,11 +2327,11 @@
       <c r="J20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="68"/>
+      <c r="K20" s="49"/>
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="63"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="31" t="s">
         <v>100</v>
       </c>
@@ -2344,11 +2353,11 @@
       <c r="J21" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="49"/>
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" s="30" customFormat="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="31"/>
       <c r="C22" s="29" t="s">
         <v>129</v>
@@ -2366,11 +2375,11 @@
       <c r="J22" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="49"/>
       <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" s="30" customFormat="1" ht="148.5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="33"/>
       <c r="C23" s="35" t="s">
         <v>23</v>
@@ -2382,11 +2391,11 @@
       <c r="G23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="49"/>
       <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:14" s="30" customFormat="1" ht="27">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="58" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="27"/>
@@ -2416,7 +2425,7 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" s="30" customFormat="1" ht="81">
-      <c r="A25" s="63"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="31"/>
       <c r="C25" s="28" t="s">
         <v>50</v>
@@ -2441,7 +2450,7 @@
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:14" s="30" customFormat="1" ht="81">
-      <c r="A26" s="64"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="33"/>
       <c r="C26" s="29" t="s">
         <v>51</v>
@@ -2467,11 +2476,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="K17:K23"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A17:A23"/>
@@ -2481,6 +2485,11 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I16"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="L2:L7"/>
     <mergeCell ref="M10:M12"/>
     <mergeCell ref="J2:J4"/>

--- a/指标清单计算_20190320.xlsx
+++ b/指标清单计算_20190320.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20310" windowHeight="10770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="180">
   <si>
     <t>所属层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,17 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 
-1.t_pointinfo 图层和面区域空间包含=&gt;点集合=&gt;去重统计个数 typee
-  pid from t_pointinfo type=1||3 然后 ST_Intersects t_division Sum Count
-3.上步骤所有站点=&gt;缓冲区（300,500,600）=&gt;计算融合面积？（规划路线计算/非规划直接取值）
-t_division intersection bufferresultonpoint =&gt;collection ST_Area=&gt;sum
-2. 步骤1中pid 点集合  集合 &gt; 
- select pid  FROM  t_linepoint where pid in（1,2,3,4,5）group by pid  having  count(distinct lineguid)&gt;1
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规划指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +1004,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 
+1.t_pointinfo 图层和面区域空间包含=&gt;点集合=&gt;去重统计个数 typee
+  pid from t_pointinfo type=1||3 然后 ST_Intersects t_division Sum Count
+3.上步骤所有站点=&gt;缓冲区（300,500,600）=&gt;计算融合面积？（规划路线计算/非规划直接取值）
+t_division intersection bufferresultonpoint =&gt;collection ST_Area=&gt;sum
+2. 步骤1中pid 点集合  集合 &gt; 
+ select pid  FROM  t_linepoint where pid in（1,2,3,4,5）group by pid  having  count(distinct lineguid)&gt;1
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.plan的线段所有站点geom=&gt;buffer=&gt;buffergeom
 2.300,500,600的geom做merge=&gt;mergegeom
 3.区域面和  mergegeom做intersection
 只加上规划的面不考虑排除的面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.这是需要去掉线路的面积
+步骤中pid结果集合，做缓冲区 Merge面，然后再与区域面intersection区求相交面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,12 +1334,54 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,50 +1397,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1718,7 +1723,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1733,7 +1738,7 @@
     <col min="8" max="8" width="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="36.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="33.125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.375" customWidth="1"/>
+    <col min="11" max="11" width="46.625" customWidth="1"/>
     <col min="12" max="12" width="41.625" style="26" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="29.875" style="26" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="57.5" style="26" customWidth="1"/>
@@ -1770,18 +1775,18 @@
         <v>134</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="25"/>
       <c r="M1" s="25" t="s">
         <v>151</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="140.25" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1805,33 +1810,33 @@
       <c r="H2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="64" t="s">
         <v>157</v>
       </c>
       <c r="M2" s="42" t="s">
         <v>162</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O2" s="45" t="s">
         <v>165</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="44.25" customHeight="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1851,10 +1856,10 @@
       <c r="H3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="64"/>
       <c r="M3" s="26" t="s">
         <v>154</v>
       </c>
@@ -1866,7 +1871,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -1882,13 +1887,13 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="50"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:16" ht="114.75" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1916,19 +1921,19 @@
       <c r="J5" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="50"/>
+      <c r="K5" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="64"/>
       <c r="M5" s="41" t="s">
         <v>155</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="81.75" customHeight="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>72</v>
@@ -1937,7 +1942,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>107</v>
@@ -1946,21 +1951,21 @@
       <c r="H6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="57" t="s">
         <v>137</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="50"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="41" t="s">
         <v>156</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="84" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
         <v>29</v>
@@ -1969,17 +1974,17 @@
         <v>34</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="17"/>
       <c r="H7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="50"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="41" t="s">
         <v>154</v>
       </c>
@@ -1988,7 +1993,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="98.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2016,8 +2021,8 @@
       <c r="J8" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="63" t="s">
-        <v>166</v>
+      <c r="K8" s="55" t="s">
+        <v>177</v>
       </c>
       <c r="L8" s="43" t="s">
         <v>159</v>
@@ -2026,11 +2031,11 @@
         <v>160</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="54">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -2050,16 +2055,16 @@
       <c r="J9" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="64"/>
+      <c r="K9" s="56"/>
       <c r="M9" s="42" t="s">
         <v>161</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="53"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2075,22 +2080,22 @@
       <c r="H10" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="M10" s="50" t="s">
+      <c r="K10" s="56"/>
+      <c r="M10" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="64" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="53"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2104,14 +2109,14 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
     </row>
     <row r="12" spans="1:16" ht="77.25" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>30</v>
@@ -2127,14 +2132,17 @@
         <v>31</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="42" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="40.5">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="67" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2154,18 +2162,18 @@
       <c r="H13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="59" t="s">
         <v>111</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="59" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
         <v>67</v>
@@ -2181,14 +2189,14 @@
       <c r="H14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="47"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="56"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="13"/>
       <c r="C15" s="24" t="s">
         <v>44</v>
@@ -2204,12 +2212,12 @@
         <v>45</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="47"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="47"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="57"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="15"/>
       <c r="C16" s="12" t="s">
         <v>19</v>
@@ -2223,14 +2231,14 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="47"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="47"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:14" s="30" customFormat="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2249,19 +2257,19 @@
       <c r="G17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="61" t="s">
         <v>113</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="62" t="s">
         <v>144</v>
       </c>
       <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" s="30" customFormat="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="31"/>
       <c r="C18" s="36" t="s">
         <v>96</v>
@@ -2277,15 +2285,15 @@
       <c r="H18" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="49"/>
+      <c r="K18" s="63"/>
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="30" customFormat="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="31"/>
       <c r="C19" s="29" t="s">
         <v>98</v>
@@ -2304,11 +2312,11 @@
       <c r="J19" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="49"/>
+      <c r="K19" s="63"/>
       <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" s="30" customFormat="1" ht="27">
-      <c r="A20" s="59"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="31"/>
       <c r="C20" s="38" t="s">
         <v>22</v>
@@ -2327,11 +2335,11 @@
       <c r="J20" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="49"/>
+      <c r="K20" s="63"/>
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A21" s="59"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="31" t="s">
         <v>100</v>
       </c>
@@ -2353,11 +2361,11 @@
       <c r="J21" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="49"/>
+      <c r="K21" s="63"/>
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" s="30" customFormat="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="31"/>
       <c r="C22" s="29" t="s">
         <v>129</v>
@@ -2375,11 +2383,11 @@
       <c r="J22" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="49"/>
+      <c r="K22" s="63"/>
       <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" s="30" customFormat="1" ht="148.5">
-      <c r="A23" s="60"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="33"/>
       <c r="C23" s="35" t="s">
         <v>23</v>
@@ -2391,11 +2399,11 @@
       <c r="G23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="49"/>
+      <c r="K23" s="63"/>
       <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:14" s="30" customFormat="1" ht="27">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="46" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="27"/>
@@ -2425,7 +2433,7 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" s="30" customFormat="1" ht="81">
-      <c r="A25" s="59"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="28" t="s">
         <v>50</v>
@@ -2450,7 +2458,7 @@
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:14" s="30" customFormat="1" ht="81">
-      <c r="A26" s="60"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="33"/>
       <c r="C26" s="29" t="s">
         <v>51</v>
@@ -2476,15 +2484,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K13:K16"/>
     <mergeCell ref="K17:K23"/>
     <mergeCell ref="N10:N12"/>
@@ -2498,6 +2497,15 @@
     <mergeCell ref="K8:K12"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/指标清单计算_20190320.xlsx
+++ b/指标清单计算_20190320.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="183">
   <si>
     <t>所属层级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,6 +1015,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注意点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Union
+Multi
+Force_2D
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.plan的线段所有站点geom=&gt;buffer=&gt;buffergeom
 2.300,500,600的geom做merge=&gt;mergegeom
 3.区域面和  mergegeom做intersection
@@ -1024,6 +1035,17 @@
   <si>
     <t>1.这是需要去掉线路的面积
 步骤中pid结果集合，做缓冲区 Merge面，然后再与区域面intersection区求相交面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select ST_Area( 
+  ( select  st_intersection( (select geom from t_division where gid='117' )::geometry,  
+     (select ST_Buffer(ST_Union(pids.geom)::geography,300,'quad_segs=8')  from
+       (select distinct pid ,geom from t_pointinfo
+            where(type = 0 and (pid not in (select pid  from t_line_plan_pointlist  where lineid = '3766B4EC-19D7-4BCA-BC07-3166E5C6DFA8' and ltype = '0'  and ptype = '0'))) 
+      or pid in (select pid  from t_line_plan_pointlist where    ltype = '1' and ptype='3' )) pids 
+  )::geometry))::geography,false
+      )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1720,9 +1742,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -1743,10 +1765,11 @@
     <col min="13" max="13" width="29.875" style="26" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="57.5" style="26" customWidth="1"/>
     <col min="15" max="15" width="37.375" style="26" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="26"/>
+    <col min="16" max="16" width="50.375" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,8 +1807,11 @@
       <c r="N1" s="25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="140.25" customHeight="1">
+      <c r="O1" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="140.25" customHeight="1">
       <c r="A2" s="66" t="s">
         <v>37</v>
       </c>
@@ -1834,8 +1860,11 @@
       <c r="P2" s="42" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="44.25" customHeight="1">
+      <c r="Q2" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="44.25" customHeight="1">
       <c r="A3" s="50"/>
       <c r="B3" s="5" t="s">
         <v>90</v>
@@ -1870,7 +1899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="51"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
@@ -1892,7 +1921,7 @@
       <c r="K4" s="56"/>
       <c r="L4" s="64"/>
     </row>
-    <row r="5" spans="1:16" ht="114.75" customHeight="1">
+    <row r="5" spans="1:17" ht="114.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>85</v>
       </c>
@@ -1932,7 +1961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="81.75" customHeight="1">
+    <row r="6" spans="1:17" ht="81.75" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
@@ -1964,7 +1993,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="84" customHeight="1">
+    <row r="7" spans="1:17" ht="84" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
@@ -1992,7 +2021,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="98.25" customHeight="1">
+    <row r="8" spans="1:17" ht="50.25" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>152</v>
       </c>
@@ -2034,7 +2063,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="54">
+    <row r="9" spans="1:17" ht="54" hidden="1">
       <c r="A9" s="50"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
@@ -2063,7 +2092,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" s="50"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
@@ -2091,10 +2120,10 @@
         <v>163</v>
       </c>
       <c r="N10" s="64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="50"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
@@ -2115,7 +2144,7 @@
       <c r="M11" s="65"/>
       <c r="N11" s="65"/>
     </row>
-    <row r="12" spans="1:16" ht="77.25" customHeight="1">
+    <row r="12" spans="1:17" ht="186.75" customHeight="1">
       <c r="A12" s="51"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
@@ -2138,10 +2167,13 @@
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
       <c r="O12" s="42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="40.5">
+        <v>181</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="40.5">
       <c r="A13" s="67" t="s">
         <v>153</v>
       </c>
@@ -2172,7 +2204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="53"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
@@ -2195,7 +2227,7 @@
       </c>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="53"/>
       <c r="B15" s="13"/>
       <c r="C15" s="24" t="s">
@@ -2216,7 +2248,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="54"/>
       <c r="B16" s="15"/>
       <c r="C16" s="12" t="s">
@@ -2432,7 +2464,7 @@
       </c>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:14" s="30" customFormat="1" ht="81">
+    <row r="25" spans="1:14" s="30" customFormat="1" ht="67.5">
       <c r="A25" s="47"/>
       <c r="B25" s="31"/>
       <c r="C25" s="28" t="s">
@@ -2457,7 +2489,7 @@
       </c>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:14" s="30" customFormat="1" ht="81">
+    <row r="26" spans="1:14" s="30" customFormat="1" ht="67.5">
       <c r="A26" s="48"/>
       <c r="B26" s="33"/>
       <c r="C26" s="29" t="s">
